--- a/biology/Biologie cellulaire et moléculaire/ARNsn_U12/ARNsn_U12.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/ARNsn_U12/ARNsn_U12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L’ARNsn U12 est un petit ARN nucléaire (snRNA ou ARNpn) non codant entrant dans la composition des petites ribonucléoprotéines nucléaires U12.
-Avec U4atac/U6atac, U5 et ARNsn U11 et des protéines associées, il forme un splicéosome mineur qui clive une classe de faible abondance d'introns d'ARN pré-messagers. Bien que la séquence nucléotidique de U12 soit très différente de celle de l'ARNsn U2, ils sont tous les deux fonctionnellement analogues[1]. La structure secondaire de U12 a été publiée[2], mais l'unique épingle à cheveux alternative située à l'extrémité 3' dans le schéma ci-contre semble mieux correspondre à la séquence de Drosophila melanogaster et d'Arabidopsis thaliana[3].
+Avec U4atac/U6atac, U5 et ARNsn U11 et des protéines associées, il forme un splicéosome mineur qui clive une classe de faible abondance d'introns d'ARN pré-messagers. Bien que la séquence nucléotidique de U12 soit très différente de celle de l'ARNsn U2, ils sont tous les deux fonctionnellement analogues. La structure secondaire de U12 a été publiée, mais l'unique épingle à cheveux alternative située à l'extrémité 3' dans le schéma ci-contre semble mieux correspondre à la séquence de Drosophila melanogaster et d'Arabidopsis thaliana.
 </t>
         </is>
       </c>
